--- a/KPI_Summary.xlsx
+++ b/KPI_Summary.xlsx
@@ -502,34 +502,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05019506715577512</v>
+        <v>0.04917201159118303</v>
       </c>
       <c r="C2" t="n">
         <v>0.04555056957470473</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03416669269765901</v>
+        <v>0.03408316209696947</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03407027122161284</v>
+        <v>0.03410481313023526</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0160283744581161</v>
+        <v>-0.01508884949421356</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0114802983530919</v>
+        <v>-0.01144575644446947</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.004548076105024199</v>
+        <v>-0.003643093049744094</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00454807610502421</v>
+        <v>-0.003643093049744098</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.900308881584265</v>
+        <v>-1.642464383760724</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08835490555068815</v>
+        <v>0.1326317532753488</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04793360398293342</v>
+        <v>0.04671402550495582</v>
       </c>
       <c r="C3" t="n">
         <v>0.04641593554534736</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03148415639215273</v>
+        <v>0.03139947484783216</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0340360434354846</v>
+        <v>0.03406810077018703</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01644944759078068</v>
+        <v>-0.01531455065712366</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01237989210986274</v>
+        <v>-0.01234783477516032</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.004069555480917943</v>
+        <v>-0.002966715881963339</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.004069555480917933</v>
+        <v>-0.00296671588196333</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.305364536173079</v>
+        <v>-1.01000137912094</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2220338936370415</v>
+        <v>0.3366207223707999</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -582,34 +582,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008024056137475607</v>
+        <v>0.009300333755907537</v>
       </c>
       <c r="C4" t="n">
         <v>0.008494525107453315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006433047146178494</v>
+        <v>0.006580821059234976</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007193138041131468</v>
+        <v>0.007219387983925</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.001591008991297112</v>
+        <v>-0.002719512696672561</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.001301387066321847</v>
+        <v>-0.001275137123528314</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0002896219249752655</v>
+        <v>-0.001444375573144247</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0002896219249752668</v>
+        <v>-0.001444375573144247</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1844613444528114</v>
+        <v>-1.055239397200096</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8575528403233247</v>
+        <v>0.3163572383656994</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -622,34 +622,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6704068530073216</v>
+        <v>0.6986772256079825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6068277797267091</v>
+        <v>0.6483800661477437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3320259897483438</v>
+        <v>0.3917674590808589</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3904708351500031</v>
+        <v>0.4579447960458904</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3383808632589778</v>
+        <v>-0.3069097665271237</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.216356944576706</v>
+        <v>-0.1904352701018532</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1220239186822718</v>
+        <v>-0.1164744964252705</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1220239186822718</v>
+        <v>-0.1164744964252704</v>
       </c>
       <c r="J5" t="n">
-        <v>-4.514031172244306</v>
+        <v>-4.622789547901371</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001674782052992539</v>
+        <v>0.001487504418300887</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -662,34 +662,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2693358996327063</v>
+        <v>0.269413401451355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2532511624585908</v>
+        <v>0.2532511624585909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2865702089810827</v>
+        <v>0.2877388143008039</v>
       </c>
       <c r="E6" t="n">
-        <v>0.26138014307498</v>
+        <v>0.2613587425545633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0172343093483763</v>
+        <v>0.01832541284944889</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00812898061638917</v>
+        <v>0.008107580095972395</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00910532873198713</v>
+        <v>0.01021783275347649</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009105328731987217</v>
+        <v>0.01021783275347654</v>
       </c>
       <c r="J6" t="n">
-        <v>1.629517887273488</v>
+        <v>1.913528058943781</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1369816278924682</v>
+        <v>0.08687762355369738</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>0.7746376811594204</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.7438271604938271</v>
       </c>
       <c r="E7" t="n">
         <v>0.7441908212560386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2981481481481482</v>
+        <v>0.1716049382716049</v>
       </c>
       <c r="G7" t="n">
         <v>-0.03044685990338164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3285950080515298</v>
+        <v>0.2020517981749866</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3285950080515299</v>
+        <v>0.2020517981749866</v>
       </c>
       <c r="J7" t="n">
-        <v>2.114960981099676</v>
+        <v>1.422423788751179</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05917258511695438</v>
+        <v>0.1822634792413849</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6703.884243589743</v>
+        <v>6424.275556089744</v>
       </c>
       <c r="C8" t="n">
         <v>7061.631870755309</v>
       </c>
       <c r="D8" t="n">
-        <v>7002.350145154553</v>
+        <v>7176.724550357375</v>
       </c>
       <c r="E8" t="n">
         <v>7114.512024908365</v>
       </c>
       <c r="F8" t="n">
-        <v>381.4193572091287</v>
+        <v>857.1992505623033</v>
       </c>
       <c r="G8" t="n">
-        <v>52.88015415305549</v>
+        <v>52.88015415305553</v>
       </c>
       <c r="H8" t="n">
-        <v>328.5392030560732</v>
+        <v>804.3190964092478</v>
       </c>
       <c r="I8" t="n">
-        <v>245.5857474117538</v>
+        <v>699.5688401145753</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>

--- a/KPI_Summary.xlsx
+++ b/KPI_Summary.xlsx
@@ -498,38 +498,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dq30_pct_unit</t>
+          <t>LPE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04917201159118303</v>
+        <v>0.2097323972323972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04555056957470473</v>
+        <v>0.2600773895815682</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03408316209696947</v>
+        <v>0.2575837742504409</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03410481313023526</v>
+        <v>0.2367588516193024</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01508884949421356</v>
+        <v>0.04785137701804368</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01144575644446947</v>
+        <v>-0.02331853796226577</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.003643093049744094</v>
+        <v>0.07116991498030945</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.003643093049744098</v>
+        <v>0.07116991498030945</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.642464383760724</v>
+        <v>1.353594848429302</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1326317532753488</v>
+        <v>0.2020738920219552</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -538,38 +538,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dq30_pct_$</t>
+          <t>avg_loan_size</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04671402550495582</v>
+        <v>6454.523894675925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04641593554534736</v>
+        <v>7109.42636114474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03139947484783216</v>
+        <v>6837.565952380953</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03406810077018703</v>
+        <v>6976.754165449623</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01531455065712366</v>
+        <v>459.5109267526456</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01234783477516032</v>
+        <v>-132.672195695121</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.002966715881963339</v>
+        <v>592.1831224477666</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00296671588196333</v>
+        <v>515.714253400145</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.01000137912094</v>
+        <v>0.4205325582431773</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3366207223707999</v>
+        <v>0.6850307076071457</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -578,38 +578,38 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dq29_pot30_payment_rate_unit_per_day</t>
+          <t>dq29_pot30_payment_rate_$_up_to_day</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009300333755907537</v>
+        <v>0.269413401451355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008494525107453315</v>
+        <v>0.2532511624585909</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006580821059234976</v>
+        <v>0.2877388143008039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007219387983925</v>
+        <v>0.2613587425545633</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002719512696672561</v>
+        <v>0.01832541284944889</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.001275137123528314</v>
+        <v>0.008107580095972395</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.001444375573144247</v>
+        <v>0.01021783275347649</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.001444375573144247</v>
+        <v>0.01021783275347654</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.055239397200096</v>
+        <v>1.913528058943781</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3163572383656994</v>
+        <v>0.08687762355369738</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -618,118 +618,118 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dq29_pot30_payment_rate_unit_up_to_day</t>
+          <t>dq29_pot30_payment_rate_unit_per_day</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6986772256079825</v>
+        <v>0.009300333755907537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6483800661477437</v>
+        <v>0.008494525107453315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3917674590808589</v>
+        <v>0.006580821059234976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4579447960458904</v>
+        <v>0.007219387983925</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3069097665271237</v>
+        <v>-0.002719512696672561</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1904352701018532</v>
+        <v>-0.001275137123528314</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1164744964252705</v>
+        <v>-0.001444375573144247</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1164744964252704</v>
+        <v>-0.001444375573144247</v>
       </c>
       <c r="J5" t="n">
-        <v>-4.622789547901371</v>
+        <v>-1.055239397200096</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001487504418300887</v>
+        <v>0.3163572383656994</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dq29_pot30_payment_rate_$_up_to_day</t>
+          <t>dq29_pot30_payment_rate_unit_up_to_day</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.269413401451355</v>
+        <v>0.6986772256079825</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2532511624585909</v>
+        <v>0.6483800661477437</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2877388143008039</v>
+        <v>0.3917674590808589</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2613587425545633</v>
+        <v>0.4579447960458904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01832541284944889</v>
+        <v>-0.3069097665271237</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008107580095972395</v>
+        <v>-0.1904352701018532</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01021783275347649</v>
+        <v>-0.1164744964252705</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01021783275347654</v>
+        <v>-0.1164744964252704</v>
       </c>
       <c r="J6" t="n">
-        <v>1.913528058943781</v>
+        <v>-4.622789547901371</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08687762355369738</v>
+        <v>0.001487504418300887</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LPE</t>
+          <t>dq30_pct_$</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5722222222222223</v>
+        <v>0.6884552711616436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7746376811594204</v>
+        <v>0.7361260219064817</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7438271604938271</v>
+        <v>0.6760494110884452</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7441908212560386</v>
+        <v>0.7419096882689794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1716049382716049</v>
+        <v>-0.01240586007319838</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03044685990338164</v>
+        <v>0.005783666362497746</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2020517981749866</v>
+        <v>-0.01818952643569612</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2020517981749866</v>
+        <v>-0.01818952643569616</v>
       </c>
       <c r="J7" t="n">
-        <v>1.422423788751179</v>
+        <v>-1.402249483629397</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1822634792413849</v>
+        <v>0.1950165041395878</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -738,35 +738,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>avg_loan_size</t>
+          <t>dq30_pct_unit</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6424.275556089744</v>
+        <v>0.04917201159118303</v>
       </c>
       <c r="C8" t="n">
-        <v>7061.631870755309</v>
+        <v>0.04555056957470473</v>
       </c>
       <c r="D8" t="n">
-        <v>7176.724550357375</v>
+        <v>0.03408316209696947</v>
       </c>
       <c r="E8" t="n">
-        <v>7114.512024908365</v>
+        <v>0.03410481313023526</v>
       </c>
       <c r="F8" t="n">
-        <v>857.1992505623033</v>
+        <v>-0.01508884949421356</v>
       </c>
       <c r="G8" t="n">
-        <v>52.88015415305553</v>
+        <v>-0.01144575644446947</v>
       </c>
       <c r="H8" t="n">
-        <v>804.3190964092478</v>
+        <v>-0.003643093049744094</v>
       </c>
       <c r="I8" t="n">
-        <v>699.5688401145753</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>-0.003643093049744098</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1.642464383760724</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1326317532753488</v>
+      </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>

--- a/KPI_Summary.xlsx
+++ b/KPI_Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,20 +476,40 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>%Change_Test</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>%Change_Control</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>%Change_Diff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>DiD</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>tstat</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pval</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Significant</t>
         </is>
@@ -502,36 +522,50 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2097323972323972</v>
+        <v>0.2716196355085244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2600773895815682</v>
+        <v>0.2486700312902269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2575837742504409</v>
+        <v>0.2508465608465608</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2367588516193024</v>
+        <v>0.2201635211197646</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04785137701804368</v>
+        <v>-0.02077307466196356</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02331853796226577</v>
+        <v>-0.02850651017046224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07116991498030945</v>
+        <v>0.007733435508498688</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07116991498030945</v>
+        <v>-7.647854553325054</v>
       </c>
       <c r="J2" t="n">
-        <v>1.353594848429302</v>
+        <v>-11.4635889264806</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2020738920219552</v>
-      </c>
-      <c r="L2" t="b">
+        <v>3.815734373155545</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>↑ Better</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0.007733435508498698</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1930562810330638</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.8498495911476762</v>
+      </c>
+      <c r="P2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -542,36 +576,50 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6454.523894675925</v>
+        <v>7449.012972222223</v>
       </c>
       <c r="C3" t="n">
-        <v>7109.42636114474</v>
+        <v>7287.316710643691</v>
       </c>
       <c r="D3" t="n">
-        <v>6837.565952380953</v>
+        <v>6773.931223544973</v>
       </c>
       <c r="E3" t="n">
-        <v>6976.754165449623</v>
+        <v>6825.928893044526</v>
       </c>
       <c r="F3" t="n">
-        <v>459.5109267526456</v>
+        <v>-1318.439095734127</v>
       </c>
       <c r="G3" t="n">
-        <v>-132.672195695121</v>
+        <v>-461.3878175991657</v>
       </c>
       <c r="H3" t="n">
-        <v>592.1831224477666</v>
+        <v>-857.0512781349619</v>
       </c>
       <c r="I3" t="n">
-        <v>515.714253400145</v>
+        <v>-9.062700671816067</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4205325582431773</v>
+        <v>-6.331381438730009</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6850307076071457</v>
-      </c>
-      <c r="L3" t="b">
+        <v>-2.731319233086058</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>↓ Worse</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>-213.6939310780845</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.050015317374909</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.317159510780542</v>
+      </c>
+      <c r="P3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -582,36 +630,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.269413401451355</v>
+        <v>0.2693797627988484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2532511624585909</v>
+        <v>0.251513158863541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2877388143008039</v>
+        <v>0.2874381755342127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2613587425545633</v>
+        <v>0.2625666299828348</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01832541284944889</v>
+        <v>0.01805841273536432</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008107580095972395</v>
+        <v>0.01105347111929382</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01021783275347649</v>
+        <v>0.007004941616070504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01021783275347654</v>
+        <v>6.703700585277036</v>
       </c>
       <c r="J4" t="n">
-        <v>1.913528058943781</v>
+        <v>4.394788395660367</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08687762355369738</v>
-      </c>
-      <c r="L4" t="b">
+        <v>2.308912189616669</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>↑ Better</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00700494161607057</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.17674528642536</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2667296177651306</v>
+      </c>
+      <c r="P4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -622,36 +684,50 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009300333755907537</v>
+        <v>0.007372493582211477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008494525107453315</v>
+        <v>0.008094526316713242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006580821059234976</v>
+        <v>0.00682756008862527</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007219387983925</v>
+        <v>0.007112913700804932</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002719512696672561</v>
+        <v>-0.0005449334935862068</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.001275137123528314</v>
+        <v>-0.0009816126159083089</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.001444375573144247</v>
+        <v>0.0004366791223221021</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.001444375573144247</v>
+        <v>-7.391440731817451</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.055239397200096</v>
+        <v>-12.12686916443174</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3163572383656994</v>
-      </c>
-      <c r="L5" t="b">
+        <v>4.735428432614285</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>↑ Better</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0004366791223221035</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3290343122917556</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7488612092866946</v>
+      </c>
+      <c r="P5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -662,36 +738,50 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6986772256079825</v>
+        <v>0.7290152249144803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6483800661477437</v>
+        <v>0.682195370172997</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3917674590808589</v>
+        <v>0.3866628639926504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4579447960458904</v>
+        <v>0.4290904643047829</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3069097665271237</v>
+        <v>-0.34235236092183</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1904352701018532</v>
+        <v>-0.253104905868214</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1164744964252705</v>
+        <v>-0.08924745505361598</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1164744964252704</v>
+        <v>-46.9609343154652</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.622789547901371</v>
+        <v>-37.1015279397205</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001487504418300887</v>
-      </c>
-      <c r="L6" t="b">
+        <v>-9.859406375744697</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>↓ Worse</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.08924745505361581</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-3.856119468263016</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.003976677556247839</v>
+      </c>
+      <c r="P6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -702,36 +792,50 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6884552711616436</v>
+        <v>0.6924078466606944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7361260219064817</v>
+        <v>0.7346892312631622</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6760494110884452</v>
+        <v>0.6753476016538416</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7419096882689794</v>
+        <v>0.7427374434574096</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01240586007319838</v>
+        <v>-0.01706024500685287</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005783666362497746</v>
+        <v>0.008048212194247234</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01818952643569612</v>
+        <v>-0.0251084572011001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01818952643569616</v>
+        <v>-2.463901165928444</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.402249483629397</v>
+        <v>1.095458032018508</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1950165041395878</v>
-      </c>
-      <c r="L7" t="b">
+        <v>-3.559359197946951</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>↓ Worse</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.02510845720110022</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.919468142800438</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.08633284165486863</v>
+      </c>
+      <c r="P7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -742,36 +846,50 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04917201159118303</v>
+        <v>0.05369644062367666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04555056957470473</v>
+        <v>0.05033816976596275</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03408316209696947</v>
+        <v>0.03388713078061231</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03410481313023526</v>
+        <v>0.03331890603899778</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01508884949421356</v>
+        <v>-0.01980930984306436</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01144575644446947</v>
+        <v>-0.01701926372696497</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.003643093049744094</v>
+        <v>-0.002790046116099388</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.003643093049744098</v>
+        <v>-36.89129039649927</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.642464383760724</v>
+        <v>-33.80985801846318</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1326317532753488</v>
-      </c>
-      <c r="L8" t="b">
+        <v>-3.081432378036084</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>↓ Worse</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.002790046116099391</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1.117266812063672</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.2883794507195882</v>
+      </c>
+      <c r="P8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/KPI_Summary.xlsx
+++ b/KPI_Summary.xlsx
@@ -522,34 +522,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2716196355085244</v>
+        <v>0.2474053724053724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2486700312902269</v>
+        <v>0.2570636666660758</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2508465608465608</v>
+        <v>0.2326116376509601</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2201635211197646</v>
+        <v>0.2207948839830728</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02077307466196356</v>
+        <v>-0.01479373475441231</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02850651017046224</v>
+        <v>-0.03626878268300304</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007733435508498688</v>
+        <v>0.02147504792859073</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.647854553325054</v>
+        <v>-5.979552752061053</v>
       </c>
       <c r="J2" t="n">
-        <v>-11.4635889264806</v>
+        <v>-14.10887160888275</v>
       </c>
       <c r="K2" t="n">
-        <v>3.815734373155545</v>
+        <v>8.129318856821701</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.007733435508498698</v>
+        <v>0.02147504792859062</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1930562810330638</v>
+        <v>0.7588896734812929</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8498495911476762</v>
+        <v>0.4574319253167209</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -576,48 +576,48 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7449.012972222223</v>
+        <v>7358.33636246778</v>
       </c>
       <c r="C3" t="n">
-        <v>7287.316710643691</v>
+        <v>7191.220170973732</v>
       </c>
       <c r="D3" t="n">
-        <v>6773.931223544973</v>
+        <v>7189.264613114577</v>
       </c>
       <c r="E3" t="n">
-        <v>6825.928893044526</v>
+        <v>6854.063829263047</v>
       </c>
       <c r="F3" t="n">
-        <v>-1318.439095734127</v>
+        <v>-169.0717493532027</v>
       </c>
       <c r="G3" t="n">
-        <v>-461.3878175991657</v>
+        <v>-337.1563417106838</v>
       </c>
       <c r="H3" t="n">
-        <v>-857.0512781349619</v>
+        <v>168.0845923574811</v>
       </c>
       <c r="I3" t="n">
-        <v>-9.062700671816067</v>
+        <v>-2.29768987206914</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.331381438730009</v>
+        <v>-4.688444154047248</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.731319233086058</v>
+        <v>2.390754281978109</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>↓ Worse</t>
+          <t>↑ Better</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-213.6939310780845</v>
+        <v>168.0845923574816</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.050015317374909</v>
+        <v>0.1599245708582656</v>
       </c>
       <c r="O3" t="n">
-        <v>0.317159510780542</v>
+        <v>0.8762631550999298</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -630,48 +630,48 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2693797627988484</v>
+        <v>0.0006609978210201634</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251513158863541</v>
+        <v>-2.330557257483348e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2874381755342127</v>
+        <v>0.00436012197289069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2625666299828348</v>
+        <v>0.002091279540988891</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01805841273536432</v>
+        <v>0.003699124151870525</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01105347111929382</v>
+        <v>0.002093610098246374</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007004941616070504</v>
+        <v>0.001605514053624151</v>
       </c>
       <c r="I4" t="n">
-        <v>6.703700585277036</v>
+        <v>559.6272838178821</v>
       </c>
       <c r="J4" t="n">
-        <v>4.394788395660367</v>
+        <v>89833.02562182742</v>
       </c>
       <c r="K4" t="n">
-        <v>2.308912189616669</v>
+        <v>-89273.39833800953</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>↑ Better</t>
+          <t>↓ Worse</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0.00700494161607057</v>
+        <v>0.001605514053624152</v>
       </c>
       <c r="N4" t="n">
-        <v>1.17674528642536</v>
+        <v>1.27456811452601</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2667296177651306</v>
+        <v>0.2313254296872681</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -684,34 +684,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007372493582211477</v>
+        <v>0.00694651678116608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008094526316713242</v>
+        <v>0.007757556580780511</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00682756008862527</v>
+        <v>0.008441831814255781</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007112913700804932</v>
+        <v>0.007716867004573938</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0005449334935862068</v>
+        <v>0.001495315033089701</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0009816126159083089</v>
+        <v>-4.068957620657161e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004366791223221021</v>
+        <v>0.001536004609296273</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.391440731817451</v>
+        <v>21.52611272953247</v>
       </c>
       <c r="J5" t="n">
-        <v>-12.12686916443174</v>
+        <v>-0.524515364894432</v>
       </c>
       <c r="K5" t="n">
-        <v>4.735428432614285</v>
+        <v>22.0506280944269</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0.0004366791223221035</v>
+        <v>0.001536004609296274</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3290343122917556</v>
+        <v>1.001443045598322</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7488612092866946</v>
+        <v>0.3419063164669307</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -738,34 +738,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7290152249144803</v>
+        <v>0.7658373800133513</v>
       </c>
       <c r="C6" t="n">
-        <v>0.682195370172997</v>
+        <v>0.7104298268035751</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3866628639926504</v>
+        <v>0.4640292836223756</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4290904643047829</v>
+        <v>0.478202930382025</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.34235236092183</v>
+        <v>-0.3018080963909757</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.253104905868214</v>
+        <v>-0.2322268964215504</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.08924745505361598</v>
+        <v>-0.0695811999694253</v>
       </c>
       <c r="I6" t="n">
-        <v>-46.9609343154652</v>
+        <v>-39.40890119332045</v>
       </c>
       <c r="J6" t="n">
-        <v>-37.1015279397205</v>
+        <v>-32.6882244607331</v>
       </c>
       <c r="K6" t="n">
-        <v>-9.859406375744697</v>
+        <v>-6.72067673258735</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -773,13 +773,13 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-0.08924745505361581</v>
+        <v>-0.06958119996942563</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.856119468263016</v>
+        <v>-3.400900071586472</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003976677556247839</v>
+        <v>0.007862790434497686</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -792,34 +792,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6924078466606944</v>
+        <v>0.9989505431010203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7346892312631622</v>
+        <v>0.9985858274665312</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6753476016538416</v>
+        <v>0.9960757709728522</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7427374434574096</v>
+        <v>0.9978669687437893</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01706024500685287</v>
+        <v>-0.002874772128168088</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008048212194247234</v>
+        <v>-0.0007188587227418529</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0251084572011001</v>
+        <v>-0.002155913405426235</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.463901165928444</v>
+        <v>-0.2877792247095657</v>
       </c>
       <c r="J7" t="n">
-        <v>1.095458032018508</v>
+        <v>-0.07198767526730236</v>
       </c>
       <c r="K7" t="n">
-        <v>-3.559359197946951</v>
+        <v>-0.2157915494422634</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-0.02510845720110022</v>
+        <v>-0.002155913405426202</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.919468142800438</v>
+        <v>-1.718577372412172</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08633284165486863</v>
+        <v>0.1108124915013672</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -846,34 +846,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05369644062367666</v>
+        <v>0.05251641577509442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05033816976596275</v>
+        <v>0.0488541886567222</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03388713078061231</v>
+        <v>0.03318061298945178</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03331890603899778</v>
+        <v>0.03262297391715657</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01980930984306436</v>
+        <v>-0.01933580278564263</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01701926372696497</v>
+        <v>-0.01623121473956564</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.002790046116099388</v>
+        <v>-0.003104588046076998</v>
       </c>
       <c r="I8" t="n">
-        <v>-36.89129039649927</v>
+        <v>-36.81858805530389</v>
       </c>
       <c r="J8" t="n">
-        <v>-33.80985801846318</v>
+        <v>-33.22379346756846</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.081432378036084</v>
+        <v>-3.594794587735436</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-0.002790046116099391</v>
+        <v>-0.003104588046077002</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.117266812063672</v>
+        <v>-1.261071532868864</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2883794507195882</v>
+        <v>0.2345943104177632</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>

--- a/KPI_Summary.xlsx
+++ b/KPI_Summary.xlsx
@@ -522,48 +522,48 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2474053724053724</v>
+        <v>0.2547949735449735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2570636666660758</v>
+        <v>0.263957871191955</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2326116376509601</v>
+        <v>0.2132826278659612</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2207948839830728</v>
+        <v>0.2255245715435933</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01479373475441231</v>
+        <v>-0.04151234567901235</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03626878268300304</v>
+        <v>-0.03843329964836176</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02147504792859073</v>
+        <v>-0.003079046030650581</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.979552752061053</v>
+        <v>-16.29245078953062</v>
       </c>
       <c r="J2" t="n">
-        <v>-14.10887160888275</v>
+        <v>-14.56039157870472</v>
       </c>
       <c r="K2" t="n">
-        <v>8.129318856821701</v>
+        <v>-1.732059210825902</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>↑ Better</t>
+          <t>↓ Worse</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.02147504792859062</v>
+        <v>-0.003079046030650706</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7588896734812929</v>
+        <v>-0.08089603611640606</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4574319253167209</v>
+        <v>0.9366691722751022</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -576,34 +576,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7358.33636246778</v>
+        <v>7147.122709876543</v>
       </c>
       <c r="C3" t="n">
-        <v>7191.220170973732</v>
+        <v>7275.474526538211</v>
       </c>
       <c r="D3" t="n">
-        <v>7189.264613114577</v>
+        <v>7264.157952601411</v>
       </c>
       <c r="E3" t="n">
-        <v>6854.063829263047</v>
+        <v>6833.485441109632</v>
       </c>
       <c r="F3" t="n">
-        <v>-169.0717493532027</v>
+        <v>117.0352427248675</v>
       </c>
       <c r="G3" t="n">
-        <v>-337.1563417106838</v>
+        <v>-441.9890854285795</v>
       </c>
       <c r="H3" t="n">
-        <v>168.0845923574811</v>
+        <v>559.024328153447</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.29768987206914</v>
+        <v>1.637515507648108</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.688444154047248</v>
+        <v>-6.075055088384513</v>
       </c>
       <c r="K3" t="n">
-        <v>2.390754281978109</v>
+        <v>7.712570596032622</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>168.0845923574816</v>
+        <v>559.0243281534467</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1599245708582656</v>
+        <v>0.4552593390047078</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8762631550999298</v>
+        <v>0.6593739956813148</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -630,34 +630,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006609978210201634</v>
+        <v>0.0006399292330040934</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.330557257483348e-06</v>
+        <v>-4.846238655923245e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00436012197289069</v>
+        <v>0.004293299205260926</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002091279540988891</v>
+        <v>0.002000721913352637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003699124151870525</v>
+        <v>0.003653369972256832</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002093610098246374</v>
+        <v>0.002005568152008561</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001605514053624151</v>
+        <v>0.001647801820248271</v>
       </c>
       <c r="I4" t="n">
-        <v>559.6272838178821</v>
+        <v>570.9021847785259</v>
       </c>
       <c r="J4" t="n">
-        <v>89833.02562182742</v>
+        <v>41384.01540661404</v>
       </c>
       <c r="K4" t="n">
-        <v>-89273.39833800953</v>
+        <v>-40813.11322183551</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0.001605514053624152</v>
+        <v>0.001647801820248272</v>
       </c>
       <c r="N4" t="n">
-        <v>1.27456811452601</v>
+        <v>1.242862057599441</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2313254296872681</v>
+        <v>0.2434738379017352</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -684,34 +684,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00694651678116608</v>
+        <v>0.006899202885103575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007757556580780511</v>
+        <v>0.007834284629202642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008441831814255781</v>
+        <v>0.008360770404051872</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007716867004573938</v>
+        <v>0.007925903806162591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001495315033089701</v>
+        <v>0.001461567518948298</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.068957620657161e-05</v>
+        <v>9.161917695994894e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001536004609296273</v>
+        <v>0.001369948341988349</v>
       </c>
       <c r="I5" t="n">
-        <v>21.52611272953247</v>
+        <v>21.18458528164236</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.524515364894432</v>
+        <v>1.169464492245214</v>
       </c>
       <c r="K5" t="n">
-        <v>22.0506280944269</v>
+        <v>20.01512078939715</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0.001536004609296274</v>
+        <v>0.001369948341988348</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001443045598322</v>
+        <v>1.047490883728273</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3419063164669307</v>
+        <v>0.3187924072906324</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -738,34 +738,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7658373800133513</v>
+        <v>0.7671867262947433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7104298268035751</v>
+        <v>0.7105722547456687</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4640292836223756</v>
+        <v>0.4601640860580402</v>
       </c>
       <c r="E6" t="n">
-        <v>0.478202930382025</v>
+        <v>0.4818816658667086</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3018080963909757</v>
+        <v>-0.3070226402367031</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2322268964215504</v>
+        <v>-0.2286905888789601</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0695811999694253</v>
+        <v>-0.07833205135774304</v>
       </c>
       <c r="I6" t="n">
-        <v>-39.40890119332045</v>
+        <v>-40.01928470784685</v>
       </c>
       <c r="J6" t="n">
-        <v>-32.6882244607331</v>
+        <v>-32.18400202817011</v>
       </c>
       <c r="K6" t="n">
-        <v>-6.72067673258735</v>
+        <v>-7.835282679676737</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -773,13 +773,13 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-0.06958119996942563</v>
+        <v>-0.07833205135774296</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.400900071586472</v>
+        <v>-3.961831484196368</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007862790434497686</v>
+        <v>0.003435097900523567</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -792,34 +792,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9989505431010203</v>
+        <v>0.9989945035151711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985858274665312</v>
+        <v>0.9985603325721083</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9960757709728522</v>
+        <v>0.9960883203883735</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9978669687437893</v>
+        <v>0.9978918602057362</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002874772128168088</v>
+        <v>-0.002906183126797357</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0007188587227418529</v>
+        <v>-0.0006684723663720845</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.002155913405426235</v>
+        <v>-0.002237710760425273</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2877792247095657</v>
+        <v>-0.2909108224891695</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.07198767526730236</v>
+        <v>-0.06694361317660878</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2157915494422634</v>
+        <v>-0.2239672093125607</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-0.002155913405426202</v>
+        <v>-0.002237710760425449</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.718577372412172</v>
+        <v>-1.74849548988991</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1108124915013672</v>
+        <v>0.1037774793690867</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -846,34 +846,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05251641577509442</v>
+        <v>0.05265220743094221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0488541886567222</v>
+        <v>0.04897191210739486</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03318061298945178</v>
+        <v>0.03306492644480295</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03262297391715657</v>
+        <v>0.03270223026851257</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01933580278564263</v>
+        <v>-0.01958728098613925</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01623121473956564</v>
+        <v>-0.01626968183888229</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.003104588046076998</v>
+        <v>-0.003317599147256954</v>
       </c>
       <c r="I8" t="n">
-        <v>-36.81858805530389</v>
+        <v>-37.20125317030557</v>
       </c>
       <c r="J8" t="n">
-        <v>-33.22379346756846</v>
+        <v>-33.22247618839766</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.594794587735436</v>
+        <v>-3.978776981907906</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-0.003104588046077002</v>
+        <v>-0.003317599147256961</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.261071532868864</v>
+        <v>-1.329733367773564</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2345943104177632</v>
+        <v>0.2116193810713998</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>

--- a/KPI_Summary.xlsx
+++ b/KPI_Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,40 +476,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>%Change_Test</t>
+          <t>DiD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>%Change_Control</t>
+          <t>tstat</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>%Change_Diff</t>
+          <t>pval</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>DiD</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>tstat</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>pval</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Significant</t>
         </is>
@@ -522,50 +502,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2547949735449735</v>
+        <v>0.7317460317460318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.263957871191955</v>
+        <v>0.7744996549344375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2132826278659612</v>
+        <v>0.6865079365079364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2255245715435933</v>
+        <v>0.7148809523809525</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04151234567901235</v>
+        <v>-0.04523809523809525</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03843329964836176</v>
+        <v>-0.05961870255348516</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.003079046030650581</v>
+        <v>0.01438060731538991</v>
       </c>
       <c r="I2" t="n">
-        <v>-16.29245078953062</v>
+        <v>-0.05726551226551235</v>
       </c>
       <c r="J2" t="n">
-        <v>-14.56039157870472</v>
+        <v>0.1232615817076855</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.732059210825902</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>↓ Worse</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.003079046030650706</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-0.08089603611640606</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9366691722751022</v>
-      </c>
-      <c r="P2" t="b">
+        <v>0.904120734233601</v>
+      </c>
+      <c r="L2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -576,320 +542,236 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7147.122709876543</v>
+        <v>7415.334802896319</v>
       </c>
       <c r="C3" t="n">
-        <v>7275.474526538211</v>
+        <v>7130.230708522579</v>
       </c>
       <c r="D3" t="n">
-        <v>7264.157952601411</v>
+        <v>7331.953192307691</v>
       </c>
       <c r="E3" t="n">
-        <v>6833.485441109632</v>
+        <v>6983.24620406522</v>
       </c>
       <c r="F3" t="n">
-        <v>117.0352427248675</v>
+        <v>-83.38161058862816</v>
       </c>
       <c r="G3" t="n">
-        <v>-441.9890854285795</v>
+        <v>-146.9845044573592</v>
       </c>
       <c r="H3" t="n">
-        <v>559.024328153447</v>
+        <v>63.60289386873104</v>
       </c>
       <c r="I3" t="n">
-        <v>1.637515507648108</v>
+        <v>-136.5767581879309</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.075055088384513</v>
+        <v>0.05818256419115696</v>
       </c>
       <c r="K3" t="n">
-        <v>7.712570596032622</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>↑ Better</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>559.0243281534467</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.4552593390047078</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.6593739956813148</v>
-      </c>
-      <c r="P3" t="b">
+        <v>0.9548175343646363</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dq29_pot30_payment_rate_$_up_to_day</t>
+          <t>dq29_pot30_payment_rate_unit_per_day</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006399292330040934</v>
+        <v>0.008137904442032296</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.846238655923245e-06</v>
+        <v>0.007757556580780511</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004293299205260926</v>
+        <v>0.008441831814255781</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002000721913352637</v>
+        <v>0.007716867004573938</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003653369972256832</v>
+        <v>0.0003039273722234854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002005568152008561</v>
+        <v>-4.068957620657139e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001647801820248271</v>
+        <v>0.0003446169484300568</v>
       </c>
       <c r="I4" t="n">
-        <v>570.9021847785259</v>
+        <v>1.570228808198126e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>41384.01540661404</v>
+        <v>0.2884523070102074</v>
       </c>
       <c r="K4" t="n">
-        <v>-40813.11322183551</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>↓ Worse</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>0.001647801820248272</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.242862057599441</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.2434738379017352</v>
-      </c>
-      <c r="P4" t="b">
+        <v>0.7787000908455818</v>
+      </c>
+      <c r="L4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dq29_pot30_payment_rate_unit_per_day</t>
+          <t>dq29_pot30_payment_rate_unit_up_to_day</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006899202885103575</v>
+        <v>0.7128576856380868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007834284629202642</v>
+        <v>0.7104298268035751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008360770404051872</v>
+        <v>0.4640292836223756</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007925903806162591</v>
+        <v>0.478202930382025</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001461567518948298</v>
+        <v>-0.2488284020157112</v>
       </c>
       <c r="G5" t="n">
-        <v>9.161917695994894e-05</v>
+        <v>-0.2322268964215504</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001369948341988349</v>
+        <v>-0.01660150559416076</v>
       </c>
       <c r="I5" t="n">
-        <v>21.18458528164236</v>
+        <v>-0.2349435064278677</v>
       </c>
       <c r="J5" t="n">
-        <v>1.169464492245214</v>
+        <v>-1.171450080479241</v>
       </c>
       <c r="K5" t="n">
-        <v>20.01512078939715</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>↑ Better</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>0.001369948341988348</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.047490883728273</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.3187924072906324</v>
-      </c>
-      <c r="P5" t="b">
+        <v>0.2678242908720487</v>
+      </c>
+      <c r="L5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dq29_pot30_payment_rate_unit_up_to_day</t>
+          <t>dq29_pot30_payment_rate_$_up_to_day</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7671867262947433</v>
+        <v>0.001312028653511341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7105722547456687</v>
+        <v>-2.33055725748332e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4601640860580402</v>
+        <v>0.004360121972890689</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4818816658667086</v>
+        <v>0.002091279540988891</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3070226402367031</v>
+        <v>0.003048093319379348</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2286905888789601</v>
+        <v>0.002093610098246374</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.07833205135774304</v>
+        <v>0.0009544832211329738</v>
       </c>
       <c r="I6" t="n">
-        <v>-40.01928470784685</v>
+        <v>0.002249798261704497</v>
       </c>
       <c r="J6" t="n">
-        <v>-32.18400202817011</v>
+        <v>0.9634707020860324</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.835282679676737</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>↓ Worse</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>-0.07833205135774296</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.961831484196368</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.003435097900523567</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
+        <v>0.355028322995343</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dq30_pct_$</t>
+          <t>dq30_pct_unit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9989945035151711</v>
+        <v>0.04669864918067355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985603325721083</v>
+        <v>0.0488541886567222</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9960883203883735</v>
+        <v>0.03318061298945178</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9978918602057362</v>
+        <v>0.03262297391715657</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002906183126797357</v>
+        <v>-0.01351803619122178</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0006684723663720845</v>
+        <v>-0.01623121473956563</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.002237710760425273</v>
+        <v>0.002713178548343848</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2909108224891695</v>
+        <v>-0.01578724006801846</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.06694361317660878</v>
+        <v>1.448937505851671</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2239672093125607</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>↓ Worse</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.002237710760425449</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-1.74849548988991</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.1037774793690867</v>
-      </c>
-      <c r="P7" t="b">
+        <v>0.1709773730717109</v>
+      </c>
+      <c r="L7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dq30_pct_unit</t>
+          <t>dq30_pct_$</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05265220743094221</v>
+        <v>0.9981070051443941</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04897191210739486</v>
+        <v>0.9985858274665315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03306492644480295</v>
+        <v>0.9960757709728522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03270223026851257</v>
+        <v>0.9978669687437893</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01958728098613925</v>
+        <v>-0.002031234171541952</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01626968183888229</v>
+        <v>-0.0007188587227419011</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.003317599147256954</v>
+        <v>-0.001312375448800051</v>
       </c>
       <c r="I8" t="n">
-        <v>-37.20125317030557</v>
+        <v>-0.0009336110689091015</v>
       </c>
       <c r="J8" t="n">
-        <v>-33.22247618839766</v>
+        <v>-1.206522239084651</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.978776981907906</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>↓ Worse</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>-0.003317599147256961</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-1.329733367773564</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.2116193810713998</v>
-      </c>
-      <c r="P8" t="b">
+        <v>0.2471353352948185</v>
+      </c>
+      <c r="L8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/KPI_Summary.xlsx
+++ b/KPI_Summary.xlsx
@@ -502,34 +502,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7317460317460318</v>
+        <v>0.8919753086419752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7744996549344375</v>
+        <v>0.7212962962962963</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6865079365079364</v>
+        <v>0.6180555555555556</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7148809523809525</v>
+        <v>0.7100694444444444</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04523809523809525</v>
+        <v>-0.2739197530864197</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05961870255348516</v>
+        <v>-0.01122685185185185</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01438060731538991</v>
+        <v>-0.2626929012345679</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05726551226551235</v>
+        <v>-0.2626929012345677</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1232615817076855</v>
+        <v>-1.384608271639888</v>
       </c>
       <c r="K2" t="n">
-        <v>0.904120734233601</v>
+        <v>0.1984710570047823</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7415.334802896319</v>
+        <v>6981.406522119341</v>
       </c>
       <c r="C3" t="n">
-        <v>7130.230708522579</v>
+        <v>6853.072556040564</v>
       </c>
       <c r="D3" t="n">
-        <v>7331.953192307691</v>
+        <v>7069.619942332683</v>
       </c>
       <c r="E3" t="n">
-        <v>6983.24620406522</v>
+        <v>6777.255993234624</v>
       </c>
       <c r="F3" t="n">
-        <v>-83.38161058862816</v>
+        <v>88.21342021334193</v>
       </c>
       <c r="G3" t="n">
-        <v>-146.9845044573592</v>
+        <v>-235.3117629562824</v>
       </c>
       <c r="H3" t="n">
-        <v>63.60289386873104</v>
+        <v>323.5251831696243</v>
       </c>
       <c r="I3" t="n">
-        <v>-136.5767581879309</v>
+        <v>164.0299830192826</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05818256419115696</v>
+        <v>0.2301040328135855</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9548175343646363</v>
+        <v>0.82290584471427</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -578,38 +578,38 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dq29_pot30_payment_rate_unit_per_day</t>
+          <t>dq30_pct_unit</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008137904442032296</v>
+        <v>0.03893627282589385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007757556580780511</v>
+        <v>0.03601152563666175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008441831814255781</v>
+        <v>0.0322940045920654</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007716867004573938</v>
+        <v>0.03024964109376913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003039273722234854</v>
+        <v>-0.006642268233828448</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.068957620657139e-05</v>
+        <v>-0.005761884542892614</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003446169484300568</v>
+        <v>-0.0008803836909358339</v>
       </c>
       <c r="I4" t="n">
-        <v>1.570228808198126e-05</v>
+        <v>-0.0008803836909358209</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2884523070102074</v>
+        <v>-0.5544772572166765</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7787000908455818</v>
+        <v>0.5916177597107553</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -618,38 +618,38 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dq29_pot30_payment_rate_unit_up_to_day</t>
+          <t>dq30_pct_$</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7128576856380868</v>
+        <v>0.9965966054932998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7104298268035751</v>
+        <v>0.9982317537512463</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4640292836223756</v>
+        <v>0.9959517694192375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.478202930382025</v>
+        <v>0.9976286479793253</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2488284020157112</v>
+        <v>-0.0006448360740621087</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2322268964215504</v>
+        <v>-0.0006031057719208243</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.01660150559416076</v>
+        <v>-4.173030214128445e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2349435064278677</v>
+        <v>-4.173030214127404e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.171450080479241</v>
+        <v>-0.07934386342083714</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2678242908720487</v>
+        <v>0.9383720275384938</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -658,38 +658,38 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dq29_pot30_payment_rate_$_up_to_day</t>
+          <t>dq29_pot30_payment_rate_unit_per_day</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001312028653511341</v>
+        <v>0.007530871498455879</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.33055725748332e-06</v>
+        <v>0.008874039540627269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004360121972890689</v>
+        <v>0.009285787629030989</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002091279540988891</v>
+        <v>0.006929599208516626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003048093319379348</v>
+        <v>0.001754916130575109</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002093610098246374</v>
+        <v>-0.001944440332110645</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009544832211329738</v>
+        <v>0.003699356462685754</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002249798261704497</v>
+        <v>0.003699356462685753</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9634707020860324</v>
+        <v>1.700028017452019</v>
       </c>
       <c r="K6" t="n">
-        <v>0.355028322995343</v>
+        <v>0.1209561116582869</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -698,38 +698,38 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dq30_pct_unit</t>
+          <t>dq29_pot30_payment_rate_unit_up_to_day</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04669864918067355</v>
+        <v>0.6214766727126475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0488541886567222</v>
+        <v>0.579963746436155</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03318061298945178</v>
+        <v>0.4432950939350613</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03262297391715657</v>
+        <v>0.4068627846668502</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01351803619122178</v>
+        <v>-0.1781815787775861</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01623121473956563</v>
+        <v>-0.1731009617693049</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002713178548343848</v>
+        <v>-0.005080617008281246</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01578724006801846</v>
+        <v>-0.005080617008281385</v>
       </c>
       <c r="J7" t="n">
-        <v>1.448937505851671</v>
+        <v>-0.4656681151119703</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1709773730717109</v>
+        <v>0.6490915694341669</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -738,38 +738,38 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dq30_pct_$</t>
+          <t>dq29_pot30_payment_rate_$_up_to_day</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9981070051443941</v>
+        <v>0.002440572273129786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9985858274665315</v>
+        <v>0.001103606986237561</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9960757709728522</v>
+        <v>0.004638147506546255</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9978669687437893</v>
+        <v>0.002730647807165762</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002031234171541952</v>
+        <v>0.002197575233416469</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0007188587227419011</v>
+        <v>0.001627040820928201</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.001312375448800051</v>
+        <v>0.0005705344124882672</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0009336110689091015</v>
+        <v>0.0005705344124882679</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.206522239084651</v>
+        <v>0.7654840455173647</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2471353352948185</v>
+        <v>0.4562127228975335</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>

--- a/KPI_Summary.xlsx
+++ b/KPI_Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,26 @@
           <t>Significant</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>%Change_Test</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>%Change_Control</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>%Change_Diff</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -534,6 +554,20 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
+      <c r="M2" t="n">
+        <v>-30.70934256055362</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.556482670089866</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-29.15285989046376</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>↓ Worse</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -574,6 +608,20 @@
       <c r="L3" t="b">
         <v>0</v>
       </c>
+      <c r="M3" t="n">
+        <v>1.263547967502731</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.106314900155447</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.369862867658178</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>↑ Better</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -614,6 +662,20 @@
       <c r="L4" t="b">
         <v>0</v>
       </c>
+      <c r="M4" t="n">
+        <v>-17.05933247265292</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-16.00011230023173</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1.059220172421181</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>↓ Worse</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -654,6 +716,20 @@
       <c r="L5" t="b">
         <v>0</v>
       </c>
+      <c r="M5" t="n">
+        <v>-0.06470382003188843</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06041741005078369</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.004286409981104737</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>↓ Worse</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +770,20 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
+      <c r="M6" t="n">
+        <v>23.30296209323099</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-21.91155812647189</v>
+      </c>
+      <c r="O6" t="n">
+        <v>45.21452021970288</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>↑ Better</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -734,6 +824,20 @@
       <c r="L7" t="b">
         <v>0</v>
       </c>
+      <c r="M7" t="n">
+        <v>-28.67067849865575</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-29.84685902058545</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.176180521929695</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>↑ Better</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -773,6 +877,20 @@
       </c>
       <c r="L8" t="b">
         <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>90.04344012309467</v>
+      </c>
+      <c r="N8" t="n">
+        <v>147.4293694420277</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-57.38592931893304</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>↓ Worse</t>
+        </is>
       </c>
     </row>
   </sheetData>
